--- a/src/pedon/datasets/Soil_Parameters.xlsx
+++ b/src/pedon/datasets/Soil_Parameters.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vonkm\Documents\GitHub\pedon\src\pedon\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BBC8F9-B90B-4512-8FBB-5E11AC44244C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Genuchten"/>
-    <sheet r:id="rId2" sheetId="2" name="Brooks"/>
+    <sheet name="Genuchten" sheetId="1" r:id="rId1"/>
+    <sheet name="Brooks" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="278">
   <si>
     <t>name</t>
   </si>
@@ -182,9 +188,6 @@
     <t>Staring</t>
   </si>
   <si>
-    <t>leemarm, zeer fijn tot matig fijn zand</t>
-  </si>
-  <si>
     <t>31.23</t>
   </si>
   <si>
@@ -203,9 +206,6 @@
     <t>B02</t>
   </si>
   <si>
-    <t>zwak lemig, zeer fijn tot matig fijn zand</t>
-  </si>
-  <si>
     <t>83.24</t>
   </si>
   <si>
@@ -218,9 +218,6 @@
     <t>B03</t>
   </si>
   <si>
-    <t>sterk lemig, zeer fijn tot matig fijn zand</t>
-  </si>
-  <si>
     <t>19.08</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>B04</t>
   </si>
   <si>
-    <t>zeer sterk lemig, zeer fijn tot matig fijn zand</t>
-  </si>
-  <si>
     <t>34.88</t>
   </si>
   <si>
@@ -383,9 +377,6 @@
     <t>zandige leem</t>
   </si>
   <si>
-    <t xml:space="preserve">Sandy Loam      </t>
-  </si>
-  <si>
     <t>29.83</t>
   </si>
   <si>
@@ -653,9 +644,6 @@
     <t>O15</t>
   </si>
   <si>
-    <t xml:space="preserve">Silt Loam       </t>
-  </si>
-  <si>
     <t>2.79</t>
   </si>
   <si>
@@ -747,13 +735,132 @@
   </si>
   <si>
     <t>7.0</t>
+  </si>
+  <si>
+    <t>1.735</t>
+  </si>
+  <si>
+    <t>1.349</t>
+  </si>
+  <si>
+    <t>1.505</t>
+  </si>
+  <si>
+    <t>1.397</t>
+  </si>
+  <si>
+    <t>1.808</t>
+  </si>
+  <si>
+    <t>1.242</t>
+  </si>
+  <si>
+    <t>1.248</t>
+  </si>
+  <si>
+    <t>1.278</t>
+  </si>
+  <si>
+    <t>1.267</t>
+  </si>
+  <si>
+    <t>1.135</t>
+  </si>
+  <si>
+    <t>1.107</t>
+  </si>
+  <si>
+    <t>1.091</t>
+  </si>
+  <si>
+    <t>1.437</t>
+  </si>
+  <si>
+    <t>1.302</t>
+  </si>
+  <si>
+    <t>1.282</t>
+  </si>
+  <si>
+    <t>1.279</t>
+  </si>
+  <si>
+    <t>1.137</t>
+  </si>
+  <si>
+    <t>1.151</t>
+  </si>
+  <si>
+    <t>2.163</t>
+  </si>
+  <si>
+    <t>1.524</t>
+  </si>
+  <si>
+    <t>1.703</t>
+  </si>
+  <si>
+    <t>1.488</t>
+  </si>
+  <si>
+    <t>2.888</t>
+  </si>
+  <si>
+    <t>1.289</t>
+  </si>
+  <si>
+    <t>1.153</t>
+  </si>
+  <si>
+    <t>1.346</t>
+  </si>
+  <si>
+    <t>1.376</t>
+  </si>
+  <si>
+    <t>1.246</t>
+  </si>
+  <si>
+    <t>1.126</t>
+  </si>
+  <si>
+    <t>1.158</t>
+  </si>
+  <si>
+    <t>1.617</t>
+  </si>
+  <si>
+    <t>1.287</t>
+  </si>
+  <si>
+    <t>1.364</t>
+  </si>
+  <si>
+    <t>1.272</t>
+  </si>
+  <si>
+    <t>1.316</t>
+  </si>
+  <si>
+    <t>leemarm zeer fijn tot matig fijn zand</t>
+  </si>
+  <si>
+    <t>zwak lemig zeer fijn tot matig fijn zand</t>
+  </si>
+  <si>
+    <t>sterk lemig zeer fijn tot matig fijn zand</t>
+  </si>
+  <si>
+    <t>zeer sterk lemig zeer fijn tot matig fijn zand</t>
+  </si>
+  <si>
+    <t>G.E. 13 - alpha 0.0104 in VS2DRTI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -796,35 +903,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -835,10 +939,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -876,71 +980,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -968,7 +1072,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -991,11 +1095,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1004,13 +1108,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1020,7 +1124,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1029,7 +1133,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1038,7 +1142,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1046,10 +1150,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1114,82 +1218,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="40.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="5.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3">
         <v>712.8</v>
       </c>
       <c r="F2" s="3">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G2" s="3">
         <v>0.43</v>
       </c>
       <c r="H2" s="3">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="I2" s="3">
         <v>2.68</v>
@@ -1198,22 +1304,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="3">
         <v>350.2</v>
       </c>
       <c r="F3" s="3">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="G3" s="3">
         <v>0.41</v>
@@ -1222,34 +1328,34 @@
         <v>0.125</v>
       </c>
       <c r="I3" s="3">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="J3" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>106.1</v>
       </c>
       <c r="F4" s="3">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G4" s="3">
         <v>0.41</v>
       </c>
       <c r="H4" s="3">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I4" s="3">
         <v>1.89</v>
@@ -1258,28 +1364,28 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="3">
         <v>24.96</v>
       </c>
       <c r="F5" s="3">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="G5" s="3">
         <v>0.43</v>
       </c>
       <c r="H5" s="3">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="I5" s="3">
         <v>1.56</v>
@@ -1288,28 +1394,28 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3">
         <v>6</v>
       </c>
       <c r="F6" s="3">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G6" s="3">
         <v>0.46</v>
       </c>
       <c r="H6" s="3">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I6" s="3">
         <v>1.37</v>
@@ -1318,22 +1424,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="3">
         <v>10.8</v>
       </c>
       <c r="F7" s="3">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="G7" s="3">
         <v>0.45</v>
@@ -1348,15 +1454,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="3">
@@ -1369,7 +1475,7 @@
         <v>0.39</v>
       </c>
       <c r="H8" s="3">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I8" s="3">
         <v>1.48</v>
@@ -1378,28 +1484,28 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="3">
         <v>6.24</v>
       </c>
       <c r="F9" s="3">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G9" s="3">
         <v>0.41</v>
       </c>
       <c r="H9" s="3">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I9" s="3">
         <v>1.31</v>
@@ -1408,22 +1514,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="3">
         <v>1.68</v>
       </c>
       <c r="F10" s="3">
-        <v>0.089</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="G10" s="3">
         <v>0.43</v>
@@ -1438,15 +1544,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="3">
@@ -1459,7 +1565,7 @@
         <v>0.38</v>
       </c>
       <c r="H11" s="3">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I11" s="3">
         <v>1.23</v>
@@ -1468,1332 +1574,1332 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="3">
         <v>0.48</v>
       </c>
       <c r="F12" s="3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G12" s="3">
         <v>0.36</v>
       </c>
       <c r="H12" s="3">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I12" s="3">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J12" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="3">
         <v>4.8</v>
       </c>
       <c r="F13" s="3">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="G13" s="3">
         <v>0.38</v>
       </c>
       <c r="H13" s="3">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I13" s="3">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J13" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1735</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="H15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1349</v>
+      <c r="I15" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="J15" s="3">
         <v>7.202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="H16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="3">
-        <v>1505</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+      <c r="H17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="I17" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="3">
-        <v>1397</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="H18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="3">
-        <v>1808</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="F19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+      <c r="H19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="I19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1242</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1248</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1278</v>
+      <c r="F21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="J21" s="3">
         <v>-1.919</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>103</v>
+      <c r="E22" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1267</v>
+      <c r="G22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="J22" s="3">
         <v>-2.387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="I23" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4.5810000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="E24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="F24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="3">
-        <v>1135</v>
-      </c>
-      <c r="J23" s="3">
-        <v>4.581</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+      <c r="H24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-5.5490000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1107</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-5.549</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+      <c r="H25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="I25" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J25" s="3">
+        <v>-4.4939999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="F26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I25" s="3">
-        <v>1091</v>
-      </c>
-      <c r="J25" s="3">
-        <v>-4.494</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+      <c r="H26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1437</v>
+      <c r="I26" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="J26" s="3">
         <v>-1.357</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="E28" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="F28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I27" s="3">
-        <v>1302</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-0.335</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+      <c r="H28" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1282</v>
+      <c r="I28" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="J28" s="3">
         <v>-1478</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1279</v>
+      <c r="D29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="J29" s="3">
         <v>-1221</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>144</v>
+      <c r="C30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1137</v>
+      <c r="G30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>149</v>
+      <c r="C31" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1151</v>
+      <c r="G31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2.8679999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="F33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C34" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2163</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2.868</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="E34" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="F34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H34" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I33" s="3">
-        <v>1524</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1703</v>
+      <c r="I34" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2.1789999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="F36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1488</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2.179</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="F37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C38" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I36" s="3">
-        <v>2888</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0.074</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="E38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J38" s="3">
+        <v>-2.0129999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1289</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1153</v>
-      </c>
-      <c r="J38" s="3">
-        <v>-2.013</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1346</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="G39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>188</v>
+      <c r="E40" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" s="3">
+        <v>-1.0129999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H40" s="6" t="s">
+    </row>
+    <row r="42" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I40" s="3">
-        <v>1376</v>
-      </c>
-      <c r="J40" s="3">
-        <v>-1.013</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1246</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2.3570000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I43" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J43" s="3">
+        <v>-3.1720000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I42" s="3">
-        <v>1126</v>
-      </c>
-      <c r="J42" s="3">
-        <v>2.357</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="1" t="s">
+      <c r="B44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="F44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" s="3">
+        <v>-6.0910000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1158</v>
-      </c>
-      <c r="J43" s="3">
-        <v>-3.172</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="1" t="s">
+      <c r="C45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="F45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>-6.091</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="1" t="s">
+      <c r="C46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="F46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="6" t="s">
+      <c r="H46" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1617</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0.514</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1287</v>
+      <c r="I46" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
-      <c r="A47" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>218</v>
+      <c r="C47" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1364</v>
-      </c>
-      <c r="J47" s="6" t="s">
+      <c r="I48" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J48" s="3">
+        <v>-1.2490000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="1" t="s">
+      <c r="B49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="D49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="6" t="s">
+      <c r="F49" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" s="6" t="s">
+      <c r="H49" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="I49" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="I48" s="3">
-        <v>1272</v>
-      </c>
-      <c r="J48" s="3">
-        <v>-1.249</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1316</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E50" s="3">
         <v>40000</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>234</v>
+      <c r="F50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="H50" s="3">
-        <v>0.0431</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
-      <c r="A51" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B51" s="1" t="s">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="3">
         <v>70</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>239</v>
+      <c r="F51" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="H51" s="3">
-        <v>0.00847</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
-      <c r="A52" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B52" s="1" t="s">
+        <v>8.4700000000000001E-3</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E52" s="3">
         <v>22.5</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>104</v>
+      <c r="F52" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0.00505</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
-      <c r="A53" s="1" t="s">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="3">
         <v>700000</v>
       </c>
       <c r="F53" s="3">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G53" s="3">
         <v>0.36</v>
       </c>
       <c r="H53" s="3">
-        <v>0.0014199999999999998</v>
+        <v>1.4199999999999998E-3</v>
       </c>
       <c r="I53" s="3">
         <v>6.3</v>
@@ -2802,15 +2908,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="3">
@@ -2823,7 +2929,7 @@
         <v>0.375</v>
       </c>
       <c r="H54" s="3">
-        <v>0.00232</v>
+        <v>2.32E-3</v>
       </c>
       <c r="I54" s="3">
         <v>3.1</v>
@@ -2832,28 +2938,28 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="3">
         <v>850</v>
       </c>
       <c r="F55" s="3">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="H55" s="3">
-        <v>0.00134</v>
+        <v>1.34E-3</v>
       </c>
       <c r="I55" s="3">
         <v>9</v>
@@ -2862,28 +2968,28 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="3">
-        <v>819.9999999999999</v>
+        <v>819.99999999999989</v>
       </c>
       <c r="F56" s="3">
-        <v>0.069</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="G56" s="3">
         <v>0.435</v>
       </c>
       <c r="H56" s="3">
-        <v>0.0032600000000000003</v>
+        <v>3.2600000000000003E-3</v>
       </c>
       <c r="I56" s="3">
         <v>3.9</v>
@@ -2892,30 +2998,30 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="3">
         <v>210</v>
       </c>
       <c r="F57" s="3">
-        <v>0.072</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G57" s="3">
         <v>0.377</v>
       </c>
       <c r="H57" s="3">
-        <v>0.0096</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="I57" s="3">
         <v>6.9</v>
@@ -2924,15 +3030,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E58" s="3">
@@ -2945,7 +3051,7 @@
         <v>0.496</v>
       </c>
       <c r="H58" s="3">
-        <v>0.0118</v>
+        <v>1.18E-2</v>
       </c>
       <c r="I58" s="3">
         <v>4.8</v>
@@ -2954,17 +3060,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E59" s="3">
@@ -2977,7 +3083,7 @@
         <v>0.43</v>
       </c>
       <c r="H59" s="3">
-        <v>0.019799999999999998</v>
+        <v>1.9799999999999998E-2</v>
       </c>
       <c r="I59" s="3">
         <v>7</v>
@@ -2986,15 +3092,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="3">
@@ -3007,7 +3113,7 @@
         <v>0.25</v>
       </c>
       <c r="H60" s="3">
-        <v>0.0126</v>
+        <v>1.26E-2</v>
       </c>
       <c r="I60" s="3">
         <v>10.6</v>
@@ -3016,15 +3122,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E61" s="3">
@@ -3037,7 +3143,7 @@
         <v>0.42</v>
       </c>
       <c r="H61" s="3">
-        <v>0.0274</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="I61" s="3">
         <v>2.06</v>
@@ -3046,30 +3152,30 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E62" s="3">
         <v>1.3</v>
       </c>
       <c r="F62" s="3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="G62" s="3">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="H62" s="3">
-        <v>0.00651</v>
+        <v>6.5100000000000002E-3</v>
       </c>
       <c r="I62" s="3">
         <v>1.3</v>
@@ -3078,30 +3184,30 @@
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E63" s="3">
         <v>1.0999999999999999</v>
       </c>
       <c r="F63" s="3">
-        <v>0.175</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G63" s="3">
         <v>0.495</v>
       </c>
       <c r="H63" s="3">
-        <v>0.0040100000000000005</v>
+        <v>4.0100000000000005E-3</v>
       </c>
       <c r="I63" s="3">
         <v>1.6</v>
@@ -3116,360 +3222,362 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>700000</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.011</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G2" s="4">
         <v>0.36</v>
       </c>
-      <c r="H2" s="3">
-        <v>0.0011200000000000001</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="H2" s="4">
+        <v>1.1200000000000001E-3</v>
+      </c>
+      <c r="I2" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>40000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>0.375</v>
       </c>
-      <c r="H3" s="3">
-        <v>0.00149</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="4">
+        <v>1.49E-3</v>
+      </c>
+      <c r="I3" s="4">
         <v>0.84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>850</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0.09</v>
       </c>
-      <c r="G4" s="3">
-        <v>0.424</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.00114</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="4">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.14E-3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3">
-        <v>819.9999999999999</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="4">
+        <v>819.99999999999989</v>
+      </c>
+      <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>0.435</v>
       </c>
-      <c r="H5" s="3">
-        <v>0.00196</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="4">
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="I5" s="4">
         <v>0.84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>210</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.063</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G6" s="4">
         <v>0.377</v>
       </c>
-      <c r="H6" s="3">
-        <v>0.008199999999999999</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6" s="4">
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="I6" s="4">
         <v>3.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>70</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0.11</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>0.496</v>
       </c>
-      <c r="H7" s="3">
-        <v>0.0085</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="H7" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="I7" s="4">
         <v>1.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>22</v>
       </c>
-      <c r="F8" s="3">
-        <v>0.095</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G8" s="4">
         <v>0.43</v>
       </c>
-      <c r="H8" s="3">
-        <v>0.014499999999999999</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8" s="4">
+        <v>1.4499999999999999E-2</v>
+      </c>
+      <c r="I8" s="4">
         <v>1.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>15</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0.13</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>0.25</v>
       </c>
-      <c r="H9" s="3">
-        <v>0.0106</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="4">
+        <v>1.06E-2</v>
+      </c>
+      <c r="I9" s="4">
         <v>2.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>3.9</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.13</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>0.42</v>
       </c>
-      <c r="H10" s="3">
-        <v>0.0141</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="4">
+        <v>1.41E-2</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>1.3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="3">
-        <v>0.449</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.00338</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="G11" s="4">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3.3800000000000002E-3</v>
+      </c>
+      <c r="I11" s="4">
         <v>0.22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>1.0999999999999999</v>
       </c>
-      <c r="F12" s="3">
-        <v>0.055</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G12" s="4">
         <v>0.495</v>
       </c>
-      <c r="H12" s="3">
-        <v>0.00181</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="H12" s="4">
+        <v>1.81E-3</v>
+      </c>
+      <c r="I12" s="4">
         <v>0.25</v>
       </c>
     </row>

--- a/src/pedon/datasets/Soil_Parameters.xlsx
+++ b/src/pedon/datasets/Soil_Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vonkm\Documents\GitHub\pedon\src\pedon\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BBC8F9-B90B-4512-8FBB-5E11AC44244C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60BD945-799D-464C-B089-029D4BAE72EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="280">
   <si>
     <t>name</t>
   </si>
@@ -855,6 +855,12 @@
   </si>
   <si>
     <t>G.E. 13 - alpha 0.0104 in VS2DRTI</t>
+  </si>
+  <si>
+    <t>-1.478</t>
+  </si>
+  <si>
+    <t>-1.221</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1230,8 @@
   </sheetPr>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,8 +2116,8 @@
       <c r="I28" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="J28" s="3">
-        <v>-1478</v>
+      <c r="J28" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2142,8 +2148,8 @@
       <c r="I29" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="J29" s="3">
-        <v>-1221</v>
+      <c r="J29" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
